--- a/scripts/data/monster_config_Table.xlsx
+++ b/scripts/data/monster_config_Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BF86D7D-B7FA-42C9-8CC5-56F3F026F088}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22932" windowHeight="10992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@怪物配置表#monster_config_Table" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id[!][int]</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,13 +51,45 @@
   </si>
   <si>
     <t>hp[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_distance[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>patrol_radius[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡逻半径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_speed[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能速度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -387,20 +420,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G8" activeCellId="1" sqref="G4 G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" style="2" customWidth="1"/>
-    <col min="2" max="3" width="18.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.75" style="2" customWidth="1"/>
+    <col min="2" max="4" width="18.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="24" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,8 +446,20 @@
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -421,8 +469,20 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1001</v>
       </c>
@@ -432,8 +492,20 @@
       <c r="C3" s="1">
         <v>100</v>
       </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1002</v>
       </c>
@@ -443,10 +515,26 @@
       <c r="C4" s="1">
         <v>100</v>
       </c>
+      <c r="D4" s="1">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/scripts/data/monster_config_Table.xlsx
+++ b/scripts/data/monster_config_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BF86D7D-B7FA-42C9-8CC5-56F3F026F088}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B819CAAC-AB94-4C94-8C9E-3BC9597E98C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" activeCellId="1" sqref="G4 G8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="1">
         <v>5</v>
@@ -513,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D4" s="1">
         <v>5</v>

--- a/scripts/data/monster_config_Table.xlsx
+++ b/scripts/data/monster_config_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B819CAAC-AB94-4C94-8C9E-3BC9597E98C2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A67C2D2F-F246-4E71-B160-8B930D78831E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -490,16 +490,16 @@
         <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>5</v>
       </c>
       <c r="F3" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
@@ -513,16 +513,16 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G4" s="1">
         <v>5</v>
